--- a/Lambda4Unpivot.xlsx
+++ b/Lambda4Unpivot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{B30C6252-6E3E-4B8A-9B3C-85D8ABAD889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3882528B-73CF-4556-B526-5CE1E69A23AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -18,11 +18,24 @@
     <sheet name="Lists" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_fBCAST">_xlfn.LAMBDA(_xlpm._nData, _xlfn.LET(_xlpm.f, _xlfn.LAMBDA(_xlpm._d, _xlfn.LET(_xlpm._c, COLUMNS(_xlpm._d) - 1, _xlfn.DROP(_xlfn.REDUCE("", _xlfn.TAKE(_xlpm._d, , 1), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.VSTACK(_xlpm.a, _xlfn.EXPAND(_xlpm.v, _xlpm._c, 1, _xlpm.v)))), 1))), _xlfn.HSTACK(_xlpm.f(_xlpm._nData), _xlfn.TOCOL(_xlfn.DROP(_xlpm._nData, , 1)))))</definedName>
+    <definedName name="_fCharCount">_xlfn.LAMBDA(_xlpm.s,_xlpm.c, _xlfn.LET(_xlpm.z, SUBSTITUTE(_xlpm.s, _xlpm.c, ""), LEN(_xlpm.s) - LEN(_xlpm.z)))</definedName>
+    <definedName name="_fDN">_xlfn.LAMBDA(_xlpm.arr,_xlop.ini, _xlfn.LET(_xlpm._ini, IF(_xlfn.ISOMITTED(_xlpm.ini), "", _xlpm.ini), _xlfn.SCAN(_xlpm._ini, _xlpm.arr, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(LEN(_xlpm.v) = 0, _xlpm.a, _xlpm.v)))))</definedName>
+    <definedName name="_fDX">_xlfn.LAMBDA(_xlpm.vlookup_value,_xlpm.vlookup_array,_xlpm.hlookup_value,_xlpm.hlookup_array,_xlpm.return_array,_xlop.if_not_found,_xlop.vmatch_mode,_xlop.vsearch_mode,_xlop.hmatch_mode,_xlop.hsearch_mode, IFERROR(INDEX(_xlpm.return_array, _xlfn.XMATCH(_xlpm.vlookup_value, _xlpm.vlookup_array, _xlpm.vmatch_mode, _xlpm.vsearch_mode), _xlfn.XMATCH(_xlpm.hlookup_value, _xlpm.hlookup_array, _xlpm.hmatch_mode, _xlpm.hsearch_mode)), IF(ISOMlTTED(_xlpm.if_not_found), NA(), _xlpm.if_not_found)))</definedName>
+    <definedName name="_fIndex">_xlfn.LAMBDA(_xlpm.d,_xlpm.r, INDEX(_xlpm.d, _xlpm.r, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.d))))</definedName>
+    <definedName name="_fInterp">_xlfn.LAMBDA(_xlpm.x,_xlpm.xdat,_xlpm.ydat, _xlfn.LET(_xlpm.xmin, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.xdat, , -1), _xlpm.xmax, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.xdat, , 1), _xlpm.ymin, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.ydat, , -1), _xlpm.ymax, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.ydat, , 1), IF(_xlpm.xmin = _xlpm.xmax, _xlpm.ymin, (_xlpm.ymin * (_xlpm.xmax - _xlpm.x) + _xlpm.ymax * (_xlpm.x - _xlpm.xmin)) / (_xlpm.xmax - _xlpm.xmin))))</definedName>
+    <definedName name="_fLC">_xlfn.LAMBDA(_xlpm.Reference,_xlpm.ContainedIn, _xlfn._xlws.FILTER(_xlpm.Reference, COUNTIFS(_xlpm.ContainedIn, _xlpm.Reference) = 0))</definedName>
+    <definedName name="_fQ">_xlfn.LAMBDA(_xlpm.x, ROUNDUP(MONTH(1 &amp; _xlpm.x) / 3, 0))</definedName>
+    <definedName name="_fSUPERXLOOKUP">_xlfn.LAMBDA(_xlpm.lookup_value,_xlpm.lookup_array,_xlpm.return_array,_xlop.if_not_found,_xlop.match_mode,_xlop.search_mode, IF(COLUMNS(_xlpm.lookup_value) = 1, IFERROR(INDEX(_xlpm.return_array, _xlfn.XMATCH(_xlpm.lookup_value, _xlpm.lookup_array, _xlpm.match_mode, _xlpm.search_mode), _xlfn.SEQUENCE(1, COLUMNS(_xlpm.return_array))), IF(_xlfn.ISOMITTED(_xlpm.if_not_found), NA(), _xlpm.if_not_found)), IFERROR(INDEX(_xlpm.return_array, _xlfn.SEQUENCE(ROWS(_xlpm.return_array)), _xlfn.XMATCH(_xlpm.lookup_value, _xlpm.lookup_array, _xlpm.match_mode, _xlpm.search_mode)), IF(_xlfn.ISOMITTED(_xlpm.if_not_found), NA(), _xlpm.if_not_found))))</definedName>
+    <definedName name="_fUnpivot">_xlfn.LAMBDA(_xlpm.array, _xlfn.HSTACK(_xlfn.TEXTSPLIT(_xlfn.TEXTJOIN("|", 1, _xlfn.DROP(_xlfn.TAKE(_xlpm.array, , 1) &amp; "\" &amp; _xlfn.TAKE(_xlpm.array, 1), 1, 1)), "\", "|"), _xlfn.TOCOL(_xlfn.DROP(_xlpm.array, 1, 1))))</definedName>
+    <definedName name="_fUP">_xlfn.LAMBDA(_xlpm.arr,_xlop.ini, _xlfn.LET(_xlpm._f, _xlfn.LAMBDA(_xlpm.z, INDEX(_xlpm.z, _xlfn.SEQUENCE(ROWS(_xlpm.z), 1, ROWS(_xlpm.z), -1))), _xlpm._arr, _xlpm._f(_xlpm.arr), _xlpm._ini, IF(_xlfn.ISOMITTED(_xlpm.ini), "", _xlpm.ini), _xlpm._f(_xlfn.SCAN(_xlpm._ini, _xlpm._arr, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(LEN(_xlpm.v) = 0, _xlpm.a, _xlpm.v))))))</definedName>
+    <definedName name="DDL">_xlfn.LAMBDA(_xlpm.range,_xlop.lookup1,_xlop.lookup2,_xlop.lookup3,_xlop.lookup4,_xlop.lookup5,_xlop.lookup6,_xlop.lookup7,_xlop.lookup8,_xlop.lookup9,_xlop.lookup10, _xlfn.LET(_xlpm._s, "%^&amp;&amp;@", _xlpm.lookupValue, _xlpm.lookup1 &amp; _xlpm._s &amp; _xlpm.lookup2 &amp; _xlpm._s &amp; _xlpm.lookup3 &amp; _xlpm._s &amp; _xlpm.lookup4 &amp; _xlpm._s &amp; _xlpm.lookup5 &amp; _xlpm._s &amp; _xlpm.lookup6 &amp; _xlpm._s &amp; _xlpm.lookup7 &amp; _xlpm._s &amp; _xlpm.lookup8 &amp; _xlpm._s &amp; _xlpm.lookup9 &amp; _xlpm._s &amp; _xlpm.lookup10, _xlpm.levelIndex, IFERROR(ROWS(_xlfn.TEXTSPLIT(_xlpm.lookupValue, , _xlpm._s, TRUE())), 0) + 1, _xlpm.lookupArray, _xlfn.BYROW(_xlfn.EXPAND(_xlfn.CHOOSECOLS(_xlpm.range, _xlfn.SEQUENCE(1, _xlpm.levelIndex - 1)), , 10, ""), _xlfn.LAMBDA(_xlpm.row, _xlfn.TEXTJOIN(_xlpm._s, FALSE, _xlpm.row))), _xlpm.returnRange, INDEX(_xlpm.range, 0, _xlpm.levelIndex), _xlpm.result, IF(_xlfn.ISOMITTED(_xlpm.lookup1) * _xlpm.levelIndex = 1, _xlpm.returnRange, _xlfn.XLOOKUP(_xlpm.lookupValue, _xlpm.lookupArray, _xlpm.returnRange):_xlfn.XLOOKUP(_xlpm.lookupValue, _xlpm.lookupArray, _xlpm.returnRange, , , -1)), _xlpm.result))</definedName>
+    <definedName name="DDLSorter">_xlfn.LAMBDA(_xlpm.Range,_xlop.SortOrder, _xlfn._xlws.SORT(_xlpm.Range, _xlfn.SEQUENCE(, COLUMNS(_xlpm.Range)), _xlpm.SortOrder))</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -176,7 +189,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0;\-0;0;@"/>
+    <numFmt numFmtId="164" formatCode="0;\-0;0;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -367,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -956,7 +969,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1245,7 +1258,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="373" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="805" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1263,6 +1276,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -1277,10 +1293,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A4:N110"/>
+  <dimension ref="A4:BB115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1819,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>31</v>
       </c>
@@ -1820,7 +1836,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -1843,527 +1859,1581 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B39" t="str" cm="1">
-        <f t="array" ref="B39:D110">_xlfn.LAMBDA(_xlpm.array,
-    _xlfn.HSTACK(
-        _xlfn.TEXTSPLIT(
-            _xlfn.TEXTJOIN("|", 1, _xlfn.DROP(_xlfn.TAKE(_xlpm.array, , 1) &amp; "\" &amp; _xlfn.TAKE(_xlpm.array, 1), 1, 1)),
-            "\",
-            "|"
-        ),
-        _xlfn.TOCOL(_xlfn.DROP(_xlpm.array, 1, 1))
-    )
-)(A22:G34)</f>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>J33</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="str" cm="1">
+        <f t="array" ref="G39:BB48">_xlfn.PIVOTBY(B39:B110,C39:C110,D39:D110,_xleta.SUM)</f>
+        <v/>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+      <c r="N39">
+        <v>11</v>
+      </c>
+      <c r="O39">
+        <v>19</v>
+      </c>
+      <c r="P39">
+        <v>26</v>
+      </c>
+      <c r="Q39">
+        <v>27</v>
+      </c>
+      <c r="R39">
+        <v>36</v>
+      </c>
+      <c r="S39">
+        <v>41</v>
+      </c>
+      <c r="T39">
+        <v>45</v>
+      </c>
+      <c r="U39">
+        <v>46</v>
+      </c>
+      <c r="V39">
+        <v>51</v>
+      </c>
+      <c r="W39">
+        <v>60</v>
+      </c>
+      <c r="X39">
+        <v>72</v>
+      </c>
+      <c r="Y39">
+        <v>82</v>
+      </c>
+      <c r="Z39">
+        <v>98</v>
+      </c>
+      <c r="AA39">
+        <v>110</v>
+      </c>
+      <c r="AB39">
+        <v>115</v>
+      </c>
+      <c r="AC39">
+        <v>140</v>
+      </c>
+      <c r="AD39">
+        <v>147</v>
+      </c>
+      <c r="AE39">
+        <v>157</v>
+      </c>
+      <c r="AF39">
+        <v>161</v>
+      </c>
+      <c r="AG39">
+        <v>165</v>
+      </c>
+      <c r="AH39">
+        <v>180</v>
+      </c>
+      <c r="AI39">
+        <v>187</v>
+      </c>
+      <c r="AJ39">
+        <v>209</v>
+      </c>
+      <c r="AK39">
+        <v>297</v>
+      </c>
+      <c r="AL39">
+        <v>353</v>
+      </c>
+      <c r="AM39">
+        <v>356</v>
+      </c>
+      <c r="AN39">
+        <v>400</v>
+      </c>
+      <c r="AO39">
+        <v>454</v>
+      </c>
+      <c r="AP39">
+        <v>471</v>
+      </c>
+      <c r="AQ39">
+        <v>591</v>
+      </c>
+      <c r="AR39">
+        <v>635</v>
+      </c>
+      <c r="AS39">
+        <v>1057</v>
+      </c>
+      <c r="AT39">
+        <v>1060</v>
+      </c>
+      <c r="AU39">
+        <v>1321</v>
+      </c>
+      <c r="AV39">
+        <v>1423</v>
+      </c>
+      <c r="AW39">
+        <v>1491</v>
+      </c>
+      <c r="AX39">
+        <v>2548</v>
+      </c>
+      <c r="AY39">
+        <v>2595</v>
+      </c>
+      <c r="AZ39">
+        <v>4900</v>
+      </c>
+      <c r="BA39">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <v/>
+      </c>
+      <c r="M40" t="str">
+        <v/>
+      </c>
+      <c r="N40" t="str">
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <v/>
+      </c>
+      <c r="P40" t="str">
+        <v/>
+      </c>
+      <c r="Q40" t="str">
+        <v/>
+      </c>
+      <c r="R40" t="str">
+        <v/>
+      </c>
+      <c r="S40" t="str">
+        <v/>
+      </c>
+      <c r="T40" t="str">
+        <v/>
+      </c>
+      <c r="U40" t="str">
+        <v/>
+      </c>
+      <c r="V40" t="str">
+        <v/>
+      </c>
+      <c r="W40" t="str">
+        <v/>
+      </c>
+      <c r="X40" t="str">
+        <v/>
+      </c>
+      <c r="Y40" t="str">
+        <v/>
+      </c>
+      <c r="Z40" t="str">
+        <v/>
+      </c>
+      <c r="AA40" t="str">
+        <v/>
+      </c>
+      <c r="AB40" t="str">
+        <v/>
+      </c>
+      <c r="AC40" t="str">
+        <v/>
+      </c>
+      <c r="AD40" t="str">
+        <v/>
+      </c>
+      <c r="AE40" t="str">
+        <v/>
+      </c>
+      <c r="AF40" t="str">
+        <v/>
+      </c>
+      <c r="AG40" t="str">
+        <v/>
+      </c>
+      <c r="AH40" t="str">
+        <v/>
+      </c>
+      <c r="AI40" t="str">
+        <v/>
+      </c>
+      <c r="AJ40" t="str">
+        <v/>
+      </c>
+      <c r="AK40" t="str">
+        <v/>
+      </c>
+      <c r="AL40" t="str">
+        <v/>
+      </c>
+      <c r="AM40" t="str">
+        <v/>
+      </c>
+      <c r="AN40" t="str">
+        <v/>
+      </c>
+      <c r="AO40" t="str">
+        <v/>
+      </c>
+      <c r="AP40" t="str">
+        <v/>
+      </c>
+      <c r="AQ40" t="str">
+        <v/>
+      </c>
+      <c r="AR40" t="str">
+        <v/>
+      </c>
+      <c r="AS40" t="str">
+        <v/>
+      </c>
+      <c r="AT40" t="str">
+        <v/>
+      </c>
+      <c r="AU40" t="str">
+        <v/>
+      </c>
+      <c r="AV40" t="str">
+        <v/>
+      </c>
+      <c r="AW40" t="str">
+        <v/>
+      </c>
+      <c r="AX40" t="str">
+        <v/>
+      </c>
+      <c r="AY40" t="str">
+        <v/>
+      </c>
+      <c r="AZ40" t="str">
+        <v/>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="str">
+        <v/>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="str">
+        <v/>
+      </c>
+      <c r="Q41" t="str">
+        <v/>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41" t="str">
+        <v/>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41" t="str">
+        <v/>
+      </c>
+      <c r="V41" t="str">
+        <v/>
+      </c>
+      <c r="W41" t="str">
+        <v/>
+      </c>
+      <c r="X41" t="str">
+        <v/>
+      </c>
+      <c r="Y41" t="str">
+        <v/>
+      </c>
+      <c r="Z41" t="str">
+        <v/>
+      </c>
+      <c r="AA41" t="str">
+        <v/>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="str">
+        <v/>
+      </c>
+      <c r="AD41" t="str">
+        <v/>
+      </c>
+      <c r="AE41" t="str">
+        <v/>
+      </c>
+      <c r="AF41" t="str">
+        <v/>
+      </c>
+      <c r="AG41" t="str">
+        <v/>
+      </c>
+      <c r="AH41" t="str">
+        <v/>
+      </c>
+      <c r="AI41" t="str">
+        <v/>
+      </c>
+      <c r="AJ41" t="str">
+        <v/>
+      </c>
+      <c r="AK41" t="str">
+        <v/>
+      </c>
+      <c r="AL41" t="str">
+        <v/>
+      </c>
+      <c r="AM41" t="str">
+        <v/>
+      </c>
+      <c r="AN41" t="str">
+        <v/>
+      </c>
+      <c r="AO41" t="str">
+        <v/>
+      </c>
+      <c r="AP41" t="str">
+        <v/>
+      </c>
+      <c r="AQ41" t="str">
+        <v/>
+      </c>
+      <c r="AR41" t="str">
+        <v/>
+      </c>
+      <c r="AS41" t="str">
+        <v/>
+      </c>
+      <c r="AT41" t="str">
+        <v/>
+      </c>
+      <c r="AU41" t="str">
+        <v/>
+      </c>
+      <c r="AV41" t="str">
+        <v/>
+      </c>
+      <c r="AW41" t="str">
+        <v/>
+      </c>
+      <c r="AX41" t="str">
+        <v/>
+      </c>
+      <c r="AY41" t="str">
+        <v/>
+      </c>
+      <c r="AZ41" t="str">
+        <v/>
+      </c>
+      <c r="BA41" t="str">
+        <v/>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="str">
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <v/>
+      </c>
+      <c r="N42" t="str">
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <v/>
+      </c>
+      <c r="R42" t="str">
+        <v/>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42" t="str">
+        <v/>
+      </c>
+      <c r="U42" t="str">
+        <v/>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42" t="str">
+        <v/>
+      </c>
+      <c r="X42" t="str">
+        <v/>
+      </c>
+      <c r="Y42" t="str">
+        <v/>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="str">
+        <v/>
+      </c>
+      <c r="AB42" t="str">
+        <v/>
+      </c>
+      <c r="AC42" t="str">
+        <v/>
+      </c>
+      <c r="AD42" t="str">
+        <v/>
+      </c>
+      <c r="AE42" t="str">
+        <v/>
+      </c>
+      <c r="AF42" t="str">
+        <v/>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="str">
+        <v/>
+      </c>
+      <c r="AI42" t="str">
+        <v/>
+      </c>
+      <c r="AJ42" t="str">
+        <v/>
+      </c>
+      <c r="AK42" t="str">
+        <v/>
+      </c>
+      <c r="AL42" t="str">
+        <v/>
+      </c>
+      <c r="AM42" t="str">
+        <v/>
+      </c>
+      <c r="AN42" t="str">
+        <v/>
+      </c>
+      <c r="AO42" t="str">
+        <v/>
+      </c>
+      <c r="AP42" t="str">
+        <v/>
+      </c>
+      <c r="AQ42" t="str">
+        <v/>
+      </c>
+      <c r="AR42" t="str">
+        <v/>
+      </c>
+      <c r="AS42" t="str">
+        <v/>
+      </c>
+      <c r="AT42" t="str">
+        <v/>
+      </c>
+      <c r="AU42" t="str">
+        <v/>
+      </c>
+      <c r="AV42" t="str">
+        <v/>
+      </c>
+      <c r="AW42" t="str">
+        <v/>
+      </c>
+      <c r="AX42" t="str">
+        <v/>
+      </c>
+      <c r="AY42" t="str">
+        <v/>
+      </c>
+      <c r="AZ42" t="str">
+        <v/>
+      </c>
+      <c r="BA42" t="str">
+        <v/>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <v/>
+      </c>
+      <c r="M43" t="str">
+        <v/>
+      </c>
+      <c r="N43" t="str">
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <v/>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="str">
+        <v/>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" t="str">
+        <v/>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43" t="str">
+        <v/>
+      </c>
+      <c r="W43" t="str">
+        <v/>
+      </c>
+      <c r="X43" t="str">
+        <v/>
+      </c>
+      <c r="Y43" t="str">
+        <v/>
+      </c>
+      <c r="Z43" t="str">
+        <v/>
+      </c>
+      <c r="AA43" t="str">
+        <v/>
+      </c>
+      <c r="AB43" t="str">
+        <v/>
+      </c>
+      <c r="AC43" t="str">
+        <v/>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="str">
+        <v/>
+      </c>
+      <c r="AF43" t="str">
+        <v/>
+      </c>
+      <c r="AG43" t="str">
+        <v/>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="str">
+        <v/>
+      </c>
+      <c r="AK43" t="str">
+        <v/>
+      </c>
+      <c r="AL43" t="str">
+        <v/>
+      </c>
+      <c r="AM43" t="str">
+        <v/>
+      </c>
+      <c r="AN43" t="str">
+        <v/>
+      </c>
+      <c r="AO43" t="str">
+        <v/>
+      </c>
+      <c r="AP43" t="str">
+        <v/>
+      </c>
+      <c r="AQ43" t="str">
+        <v/>
+      </c>
+      <c r="AR43" t="str">
+        <v/>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="str">
+        <v/>
+      </c>
+      <c r="AU43" t="str">
+        <v/>
+      </c>
+      <c r="AV43" t="str">
+        <v/>
+      </c>
+      <c r="AW43" t="str">
+        <v/>
+      </c>
+      <c r="AX43" t="str">
+        <v/>
+      </c>
+      <c r="AY43" t="str">
+        <v/>
+      </c>
+      <c r="AZ43" t="str">
+        <v/>
+      </c>
+      <c r="BA43" t="str">
+        <v/>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A44" t="str" cm="1">
+        <f t="array" ref="A44:C115">_fUnpivot(A22:G34)</f>
         <v>    C-43</v>
       </c>
-      <c r="C39" t="str">
+      <c r="B44" t="str">
         <v>1940</v>
       </c>
-      <c r="D39">
+      <c r="C44">
         <v>7</v>
       </c>
-      <c r="G39" t="str" cm="1">
-        <f t="array" ref="G39:N52">_xlfn.PIVOTBY(B39:B110,C39:C110,D39:D110,_xleta.SUM)</f>
-        <v/>
-      </c>
-      <c r="H39" t="str">
+      <c r="G44" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <v/>
+      </c>
+      <c r="N44" t="str">
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <v/>
+      </c>
+      <c r="Q44" t="str">
+        <v/>
+      </c>
+      <c r="R44" t="str">
+        <v/>
+      </c>
+      <c r="S44" t="str">
+        <v/>
+      </c>
+      <c r="T44" t="str">
+        <v/>
+      </c>
+      <c r="U44" t="str">
+        <v/>
+      </c>
+      <c r="V44" t="str">
+        <v/>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="str">
+        <v/>
+      </c>
+      <c r="Z44" t="str">
+        <v/>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="str">
+        <v/>
+      </c>
+      <c r="AC44" t="str">
+        <v/>
+      </c>
+      <c r="AD44" t="str">
+        <v/>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="str">
+        <v/>
+      </c>
+      <c r="AG44" t="str">
+        <v/>
+      </c>
+      <c r="AH44" t="str">
+        <v/>
+      </c>
+      <c r="AI44" t="str">
+        <v/>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="str">
+        <v/>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="str">
+        <v/>
+      </c>
+      <c r="AP44" t="str">
+        <v/>
+      </c>
+      <c r="AQ44" t="str">
+        <v/>
+      </c>
+      <c r="AR44" t="str">
+        <v/>
+      </c>
+      <c r="AS44" t="str">
+        <v/>
+      </c>
+      <c r="AT44" t="str">
+        <v/>
+      </c>
+      <c r="AU44" t="str">
+        <v/>
+      </c>
+      <c r="AV44" t="str">
+        <v/>
+      </c>
+      <c r="AW44" t="str">
+        <v/>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44" t="str">
+        <v/>
+      </c>
+      <c r="BA44" t="str">
+        <v/>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <v>    C-43</v>
+      </c>
+      <c r="B45" t="str">
+        <v>1941</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <v/>
+      </c>
+      <c r="N45" t="str">
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <v/>
+      </c>
+      <c r="P45" t="str">
+        <v/>
+      </c>
+      <c r="Q45" t="str">
+        <v/>
+      </c>
+      <c r="R45" t="str">
+        <v/>
+      </c>
+      <c r="S45" t="str">
+        <v/>
+      </c>
+      <c r="T45" t="str">
+        <v/>
+      </c>
+      <c r="U45" t="str">
+        <v/>
+      </c>
+      <c r="V45" t="str">
+        <v/>
+      </c>
+      <c r="W45" t="str">
+        <v/>
+      </c>
+      <c r="X45" t="str">
+        <v/>
+      </c>
+      <c r="Y45" t="str">
+        <v/>
+      </c>
+      <c r="Z45" t="str">
+        <v/>
+      </c>
+      <c r="AA45" t="str">
+        <v/>
+      </c>
+      <c r="AB45" t="str">
+        <v/>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="str">
+        <v/>
+      </c>
+      <c r="AE45" t="str">
+        <v/>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="str">
+        <v/>
+      </c>
+      <c r="AH45" t="str">
+        <v/>
+      </c>
+      <c r="AI45" t="str">
+        <v/>
+      </c>
+      <c r="AJ45" t="str">
+        <v/>
+      </c>
+      <c r="AK45" t="str">
+        <v/>
+      </c>
+      <c r="AL45" t="str">
+        <v/>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="str">
+        <v/>
+      </c>
+      <c r="AR45" t="str">
+        <v/>
+      </c>
+      <c r="AS45" t="str">
+        <v/>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="str">
+        <v/>
+      </c>
+      <c r="AW45" t="str">
+        <v/>
+      </c>
+      <c r="AX45" t="str">
+        <v/>
+      </c>
+      <c r="AY45" t="str">
+        <v/>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45" t="str">
+        <v/>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <v>    C-43</v>
+      </c>
+      <c r="B46" t="str">
+        <v>1942</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="G46" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <v/>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="str">
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <v/>
+      </c>
+      <c r="P46" t="str">
+        <v/>
+      </c>
+      <c r="Q46" t="str">
+        <v/>
+      </c>
+      <c r="R46" t="str">
+        <v/>
+      </c>
+      <c r="S46" t="str">
+        <v/>
+      </c>
+      <c r="T46" t="str">
+        <v/>
+      </c>
+      <c r="U46" t="str">
+        <v/>
+      </c>
+      <c r="V46" t="str">
+        <v/>
+      </c>
+      <c r="W46" t="str">
+        <v/>
+      </c>
+      <c r="X46" t="str">
+        <v/>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="str">
+        <v/>
+      </c>
+      <c r="AA46" t="str">
+        <v/>
+      </c>
+      <c r="AB46" t="str">
+        <v/>
+      </c>
+      <c r="AC46" t="str">
+        <v/>
+      </c>
+      <c r="AD46" t="str">
+        <v/>
+      </c>
+      <c r="AE46" t="str">
+        <v/>
+      </c>
+      <c r="AF46" t="str">
+        <v/>
+      </c>
+      <c r="AG46" t="str">
+        <v/>
+      </c>
+      <c r="AH46" t="str">
+        <v/>
+      </c>
+      <c r="AI46" t="str">
+        <v/>
+      </c>
+      <c r="AJ46" t="str">
+        <v/>
+      </c>
+      <c r="AK46" t="str">
+        <v/>
+      </c>
+      <c r="AL46" t="str">
+        <v/>
+      </c>
+      <c r="AM46" t="str">
+        <v/>
+      </c>
+      <c r="AN46" t="str">
+        <v/>
+      </c>
+      <c r="AO46" t="str">
+        <v/>
+      </c>
+      <c r="AP46" t="str">
+        <v/>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="str">
+        <v/>
+      </c>
+      <c r="AT46" t="str">
+        <v/>
+      </c>
+      <c r="AU46" t="str">
+        <v/>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="str">
+        <v/>
+      </c>
+      <c r="AY46" t="str">
+        <v/>
+      </c>
+      <c r="AZ46" t="str">
+        <v/>
+      </c>
+      <c r="BA46" t="str">
+        <v/>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <v>    C-43</v>
+      </c>
+      <c r="B47" t="str">
+        <v>1943</v>
+      </c>
+      <c r="C47">
+        <v>157</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <v/>
+      </c>
+      <c r="M47" t="str">
+        <v/>
+      </c>
+      <c r="N47" t="str">
+        <v/>
+      </c>
+      <c r="O47" t="str">
+        <v/>
+      </c>
+      <c r="P47" t="str">
+        <v/>
+      </c>
+      <c r="Q47" t="str">
+        <v/>
+      </c>
+      <c r="R47" t="str">
+        <v/>
+      </c>
+      <c r="S47" t="str">
+        <v/>
+      </c>
+      <c r="T47" t="str">
+        <v/>
+      </c>
+      <c r="U47" t="str">
+        <v/>
+      </c>
+      <c r="V47" t="str">
+        <v/>
+      </c>
+      <c r="W47" t="str">
+        <v/>
+      </c>
+      <c r="X47" t="str">
+        <v/>
+      </c>
+      <c r="Y47" t="str">
+        <v/>
+      </c>
+      <c r="Z47" t="str">
+        <v/>
+      </c>
+      <c r="AA47" t="str">
+        <v/>
+      </c>
+      <c r="AB47" t="str">
+        <v/>
+      </c>
+      <c r="AC47" t="str">
+        <v/>
+      </c>
+      <c r="AD47" t="str">
+        <v/>
+      </c>
+      <c r="AE47" t="str">
+        <v/>
+      </c>
+      <c r="AF47" t="str">
+        <v/>
+      </c>
+      <c r="AG47" t="str">
+        <v/>
+      </c>
+      <c r="AH47" t="str">
+        <v/>
+      </c>
+      <c r="AI47" t="str">
+        <v/>
+      </c>
+      <c r="AJ47" t="str">
+        <v/>
+      </c>
+      <c r="AK47" t="str">
+        <v/>
+      </c>
+      <c r="AL47" t="str">
+        <v/>
+      </c>
+      <c r="AM47" t="str">
+        <v/>
+      </c>
+      <c r="AN47" t="str">
+        <v/>
+      </c>
+      <c r="AO47" t="str">
+        <v/>
+      </c>
+      <c r="AP47" t="str">
+        <v/>
+      </c>
+      <c r="AQ47" t="str">
+        <v/>
+      </c>
+      <c r="AR47" t="str">
+        <v/>
+      </c>
+      <c r="AS47" t="str">
+        <v/>
+      </c>
+      <c r="AT47" t="str">
+        <v/>
+      </c>
+      <c r="AU47" t="str">
+        <v/>
+      </c>
+      <c r="AV47" t="str">
+        <v/>
+      </c>
+      <c r="AW47" t="str">
+        <v/>
+      </c>
+      <c r="AX47" t="str">
+        <v/>
+      </c>
+      <c r="AY47" t="str">
+        <v/>
+      </c>
+      <c r="AZ47" t="str">
+        <v/>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <v>    C-43</v>
+      </c>
+      <c r="B48" t="str">
+        <v>1944</v>
+      </c>
+      <c r="C48">
+        <v>161</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Total</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <v>    C-43</v>
+      </c>
+      <c r="B49" t="str">
+        <v>1945</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <v>    C-45</v>
+      </c>
+      <c r="B50" t="str">
         <v>1940</v>
       </c>
-      <c r="I39" t="str">
+      <c r="C50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <v>    C-45</v>
+      </c>
+      <c r="B51" t="str">
         <v>1941</v>
       </c>
-      <c r="J39" t="str">
+      <c r="C51">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <v>    C-45</v>
+      </c>
+      <c r="B52" t="str">
         <v>1942</v>
       </c>
-      <c r="K39" t="str">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <v>    C-45</v>
+      </c>
+      <c r="B53" t="str">
         <v>1943</v>
       </c>
-      <c r="L39" t="str">
+      <c r="C53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <v>    C-45</v>
+      </c>
+      <c r="B54" t="str">
         <v>1944</v>
       </c>
-      <c r="M39" t="str">
-        <v>1945</v>
-      </c>
-      <c r="N39" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B40" t="str">
-        <v>    C-43</v>
-      </c>
-      <c r="C40" t="str">
-        <v>1941</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="G40" t="str">
-        <v>    C-43</v>
-      </c>
-      <c r="H40">
-        <v>7</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>27</v>
-      </c>
-      <c r="K40">
-        <v>157</v>
-      </c>
-      <c r="L40">
-        <v>161</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" t="str">
-        <v>    C-43</v>
-      </c>
-      <c r="C41" t="str">
-        <v>1942</v>
-      </c>
-      <c r="D41">
-        <v>27</v>
-      </c>
-      <c r="G41" t="str">
-        <v>    C-45</v>
-      </c>
-      <c r="H41">
-        <v>19</v>
-      </c>
-      <c r="I41">
-        <v>41</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>60</v>
-      </c>
-      <c r="L41">
+      <c r="C54">
         <v>1060</v>
-      </c>
-      <c r="M41">
-        <v>591</v>
-      </c>
-      <c r="N41">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" t="str">
-        <v>    C-43</v>
-      </c>
-      <c r="C42" t="str">
-        <v>1943</v>
-      </c>
-      <c r="D42">
-        <v>157</v>
-      </c>
-      <c r="G42" t="str">
-        <v>    C-46</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>46</v>
-      </c>
-      <c r="K42">
-        <v>353</v>
-      </c>
-      <c r="L42">
-        <v>1321</v>
-      </c>
-      <c r="M42">
-        <v>1423</v>
-      </c>
-      <c r="N42">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" t="str">
-        <v>    C-43</v>
-      </c>
-      <c r="C43" t="str">
-        <v>1944</v>
-      </c>
-      <c r="D43">
-        <v>161</v>
-      </c>
-      <c r="G43" t="str">
-        <v>    C-54</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>26</v>
-      </c>
-      <c r="K43">
-        <v>72</v>
-      </c>
-      <c r="L43">
-        <v>356</v>
-      </c>
-      <c r="M43">
-        <v>635</v>
-      </c>
-      <c r="N43">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B44" t="str">
-        <v>    C-43</v>
-      </c>
-      <c r="C44" t="str">
-        <v>1945</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="str">
-        <v>    C-61</v>
-      </c>
-      <c r="H44">
-        <v>11</v>
-      </c>
-      <c r="I44">
-        <v>51</v>
-      </c>
-      <c r="J44">
-        <v>147</v>
-      </c>
-      <c r="K44">
-        <v>400</v>
-      </c>
-      <c r="L44">
-        <v>400</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B45" t="str">
-        <v>    C-45</v>
-      </c>
-      <c r="C45" t="str">
-        <v>1940</v>
-      </c>
-      <c r="D45">
-        <v>19</v>
-      </c>
-      <c r="G45" t="str">
-        <v>    C-64</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>6</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>209</v>
-      </c>
-      <c r="L45">
-        <v>454</v>
-      </c>
-      <c r="M45">
-        <v>82</v>
-      </c>
-      <c r="N45">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B46" t="str">
-        <v>    C-45</v>
-      </c>
-      <c r="C46" t="str">
-        <v>1941</v>
-      </c>
-      <c r="D46">
-        <v>41</v>
-      </c>
-      <c r="G46" t="str">
-        <v>    C-69</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-      <c r="M46">
-        <v>10</v>
-      </c>
-      <c r="N46">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B47" t="str">
-        <v>    C-45</v>
-      </c>
-      <c r="C47" t="str">
-        <v>1942</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="G47" t="str">
-        <v>    C-78</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>187</v>
-      </c>
-      <c r="K47">
-        <v>2548</v>
-      </c>
-      <c r="L47">
-        <v>471</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>3206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B48" t="str">
-        <v>    C-45</v>
-      </c>
-      <c r="C48" t="str">
-        <v>1943</v>
-      </c>
-      <c r="D48">
-        <v>60</v>
-      </c>
-      <c r="G48" t="str">
-        <v>    C-87</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>41</v>
-      </c>
-      <c r="K48">
-        <v>110</v>
-      </c>
-      <c r="L48">
-        <v>140</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" t="str">
-        <v>    C-45</v>
-      </c>
-      <c r="C49" t="str">
-        <v>1944</v>
-      </c>
-      <c r="D49">
-        <v>1060</v>
-      </c>
-      <c r="G49" t="str">
-        <v>    DC-3 type</v>
-      </c>
-      <c r="H49">
-        <v>115</v>
-      </c>
-      <c r="I49">
-        <v>165</v>
-      </c>
-      <c r="J49">
-        <v>1057</v>
-      </c>
-      <c r="K49">
-        <v>2595</v>
-      </c>
-      <c r="L49">
-        <v>4900</v>
-      </c>
-      <c r="M49">
-        <v>1491</v>
-      </c>
-      <c r="N49">
-        <v>10323</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" t="str">
-        <v>    C-45</v>
-      </c>
-      <c r="C50" t="str">
-        <v>1945</v>
-      </c>
-      <c r="D50">
-        <v>591</v>
-      </c>
-      <c r="G50" t="str">
-        <v>    Lodestar type</v>
-      </c>
-      <c r="H50">
-        <v>45</v>
-      </c>
-      <c r="I50">
-        <v>98</v>
-      </c>
-      <c r="J50">
-        <v>180</v>
-      </c>
-      <c r="K50">
-        <v>297</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" t="str">
-        <v>    C-46</v>
-      </c>
-      <c r="C51" t="str">
-        <v>1940</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="G51" t="str">
-        <v>    Others</v>
-      </c>
-      <c r="H51">
-        <v>36</v>
-      </c>
-      <c r="I51">
-        <v>36</v>
-      </c>
-      <c r="J51">
-        <v>26</v>
-      </c>
-      <c r="K51">
-        <v>15</v>
-      </c>
-      <c r="L51">
-        <v>10</v>
-      </c>
-      <c r="M51">
-        <v>4</v>
-      </c>
-      <c r="N51">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" t="str">
-        <v>    C-46</v>
-      </c>
-      <c r="C52" t="str">
-        <v>1941</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="str">
-        <v>Total</v>
-      </c>
-      <c r="H52">
-        <v>233</v>
-      </c>
-      <c r="I52">
-        <v>398</v>
-      </c>
-      <c r="J52">
-        <v>1738</v>
-      </c>
-      <c r="K52">
-        <v>6817</v>
-      </c>
-      <c r="L52">
-        <v>9276</v>
-      </c>
-      <c r="M52">
-        <v>4236</v>
-      </c>
-      <c r="N52">
-        <v>22698</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" t="str">
-        <v>    C-46</v>
-      </c>
-      <c r="C53" t="str">
-        <v>1942</v>
-      </c>
-      <c r="D53">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" t="str">
-        <v>    C-46</v>
-      </c>
-      <c r="C54" t="str">
-        <v>1943</v>
-      </c>
-      <c r="D54">
-        <v>353</v>
       </c>
       <c r="H54" s="10">
         <v>233</v>
@@ -2384,624 +3454,679 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <v>    C-45</v>
+      </c>
       <c r="B55" t="str">
+        <v>1945</v>
+      </c>
+      <c r="C55">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
         <v>    C-46</v>
       </c>
-      <c r="C55" t="str">
+      <c r="B56" t="str">
+        <v>1940</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <v>    C-46</v>
+      </c>
+      <c r="B57" t="str">
+        <v>1941</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <v>    C-46</v>
+      </c>
+      <c r="B58" t="str">
+        <v>1942</v>
+      </c>
+      <c r="C58">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <v>    C-46</v>
+      </c>
+      <c r="B59" t="str">
+        <v>1943</v>
+      </c>
+      <c r="C59">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <v>    C-46</v>
+      </c>
+      <c r="B60" t="str">
         <v>1944</v>
       </c>
-      <c r="D55">
+      <c r="C60">
         <v>1321</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" t="str">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
         <v>    C-46</v>
       </c>
-      <c r="C56" t="str">
+      <c r="B61" t="str">
         <v>1945</v>
       </c>
-      <c r="D56">
+      <c r="C61">
         <v>1423</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" t="str">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
         <v>    C-54</v>
       </c>
-      <c r="C57" t="str">
+      <c r="B62" t="str">
         <v>1940</v>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" t="str">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
         <v>    C-54</v>
       </c>
-      <c r="C58" t="str">
+      <c r="B63" t="str">
         <v>1941</v>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" t="str">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
         <v>    C-54</v>
       </c>
-      <c r="C59" t="str">
+      <c r="B64" t="str">
         <v>1942</v>
       </c>
-      <c r="D59">
+      <c r="C64">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" t="str">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
         <v>    C-54</v>
       </c>
-      <c r="C60" t="str">
+      <c r="B65" t="str">
         <v>1943</v>
       </c>
-      <c r="D60">
+      <c r="C65">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" t="str">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
         <v>    C-54</v>
       </c>
-      <c r="C61" t="str">
+      <c r="B66" t="str">
         <v>1944</v>
       </c>
-      <c r="D61">
+      <c r="C66">
         <v>356</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" t="str">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
         <v>    C-54</v>
       </c>
-      <c r="C62" t="str">
+      <c r="B67" t="str">
         <v>1945</v>
       </c>
-      <c r="D62">
+      <c r="C67">
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" t="str">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
         <v>    C-61</v>
       </c>
-      <c r="C63" t="str">
+      <c r="B68" t="str">
         <v>1940</v>
       </c>
-      <c r="D63">
+      <c r="C68">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" t="str">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
         <v>    C-61</v>
       </c>
-      <c r="C64" t="str">
+      <c r="B69" t="str">
         <v>1941</v>
       </c>
-      <c r="D64">
+      <c r="C69">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="str">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
         <v>    C-61</v>
       </c>
-      <c r="C65" t="str">
+      <c r="B70" t="str">
         <v>1942</v>
       </c>
-      <c r="D65">
+      <c r="C70">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="str">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
         <v>    C-61</v>
       </c>
-      <c r="C66" t="str">
+      <c r="B71" t="str">
         <v>1943</v>
       </c>
-      <c r="D66">
+      <c r="C71">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="str">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
         <v>    C-61</v>
       </c>
-      <c r="C67" t="str">
+      <c r="B72" t="str">
         <v>1944</v>
       </c>
-      <c r="D67">
+      <c r="C72">
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="str">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
         <v>    C-61</v>
       </c>
-      <c r="C68" t="str">
+      <c r="B73" t="str">
         <v>1945</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="str">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
         <v>    C-64</v>
       </c>
-      <c r="C69" t="str">
+      <c r="B74" t="str">
         <v>1940</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="str">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
         <v>    C-64</v>
       </c>
-      <c r="C70" t="str">
+      <c r="B75" t="str">
         <v>1941</v>
       </c>
-      <c r="D70">
+      <c r="C75">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="str">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
         <v>    C-64</v>
       </c>
-      <c r="C71" t="str">
+      <c r="B76" t="str">
         <v>1942</v>
       </c>
-      <c r="D71">
+      <c r="C76">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="str">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
         <v>    C-64</v>
       </c>
-      <c r="C72" t="str">
+      <c r="B77" t="str">
         <v>1943</v>
       </c>
-      <c r="D72">
+      <c r="C77">
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" t="str">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
         <v>    C-64</v>
       </c>
-      <c r="C73" t="str">
+      <c r="B78" t="str">
         <v>1944</v>
       </c>
-      <c r="D73">
+      <c r="C78">
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="str">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
         <v>    C-64</v>
       </c>
-      <c r="C74" t="str">
+      <c r="B79" t="str">
         <v>1945</v>
       </c>
-      <c r="D74">
+      <c r="C79">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="str">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
         <v>    C-69</v>
       </c>
-      <c r="C75" t="str">
+      <c r="B80" t="str">
         <v>1940</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="str">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
         <v>    C-69</v>
       </c>
-      <c r="C76" t="str">
+      <c r="B81" t="str">
         <v>1941</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="str">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
         <v>    C-69</v>
       </c>
-      <c r="C77" t="str">
+      <c r="B82" t="str">
         <v>1942</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="str">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
         <v>    C-69</v>
       </c>
-      <c r="C78" t="str">
+      <c r="B83" t="str">
         <v>1943</v>
       </c>
-      <c r="D78">
+      <c r="C83">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="str">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
         <v>    C-69</v>
       </c>
-      <c r="C79" t="str">
+      <c r="B84" t="str">
         <v>1944</v>
       </c>
-      <c r="D79">
+      <c r="C84">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="str">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
         <v>    C-69</v>
       </c>
-      <c r="C80" t="str">
+      <c r="B85" t="str">
         <v>1945</v>
       </c>
-      <c r="D80">
+      <c r="C85">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="str">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
         <v>    C-78</v>
       </c>
-      <c r="C81" t="str">
+      <c r="B86" t="str">
         <v>1940</v>
       </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="str">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
         <v>    C-78</v>
       </c>
-      <c r="C82" t="str">
+      <c r="B87" t="str">
         <v>1941</v>
       </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="str">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
         <v>    C-78</v>
       </c>
-      <c r="C83" t="str">
+      <c r="B88" t="str">
         <v>1942</v>
       </c>
-      <c r="D83">
+      <c r="C88">
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="str">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
         <v>    C-78</v>
       </c>
-      <c r="C84" t="str">
+      <c r="B89" t="str">
         <v>1943</v>
       </c>
-      <c r="D84">
+      <c r="C89">
         <v>2548</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="str">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
         <v>    C-78</v>
       </c>
-      <c r="C85" t="str">
+      <c r="B90" t="str">
         <v>1944</v>
       </c>
-      <c r="D85">
+      <c r="C90">
         <v>471</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="str">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
         <v>    C-78</v>
       </c>
-      <c r="C86" t="str">
+      <c r="B91" t="str">
         <v>1945</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="str">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
         <v>    C-87</v>
       </c>
-      <c r="C87" t="str">
+      <c r="B92" t="str">
         <v>1940</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="str">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
         <v>    C-87</v>
       </c>
-      <c r="C88" t="str">
+      <c r="B93" t="str">
         <v>1941</v>
       </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="str">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
         <v>    C-87</v>
       </c>
-      <c r="C89" t="str">
+      <c r="B94" t="str">
         <v>1942</v>
       </c>
-      <c r="D89">
+      <c r="C94">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="str">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
         <v>    C-87</v>
       </c>
-      <c r="C90" t="str">
+      <c r="B95" t="str">
         <v>1943</v>
       </c>
-      <c r="D90">
+      <c r="C95">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" t="str">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
         <v>    C-87</v>
       </c>
-      <c r="C91" t="str">
+      <c r="B96" t="str">
         <v>1944</v>
       </c>
-      <c r="D91">
+      <c r="C96">
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" t="str">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
         <v>    C-87</v>
       </c>
-      <c r="C92" t="str">
+      <c r="B97" t="str">
         <v>1945</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" t="str">
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
         <v>    DC-3 type</v>
       </c>
-      <c r="C93" t="str">
+      <c r="B98" t="str">
         <v>1940</v>
       </c>
-      <c r="D93">
+      <c r="C98">
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="str">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
         <v>    DC-3 type</v>
       </c>
-      <c r="C94" t="str">
+      <c r="B99" t="str">
         <v>1941</v>
       </c>
-      <c r="D94">
+      <c r="C99">
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" t="str">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
         <v>    DC-3 type</v>
       </c>
-      <c r="C95" t="str">
+      <c r="B100" t="str">
         <v>1942</v>
       </c>
-      <c r="D95">
+      <c r="C100">
         <v>1057</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" t="str">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
         <v>    DC-3 type</v>
       </c>
-      <c r="C96" t="str">
+      <c r="B101" t="str">
         <v>1943</v>
       </c>
-      <c r="D96">
+      <c r="C101">
         <v>2595</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" t="str">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
         <v>    DC-3 type</v>
       </c>
-      <c r="C97" t="str">
+      <c r="B102" t="str">
         <v>1944</v>
       </c>
-      <c r="D97">
+      <c r="C102">
         <v>4900</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" t="str">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
         <v>    DC-3 type</v>
       </c>
-      <c r="C98" t="str">
+      <c r="B103" t="str">
         <v>1945</v>
       </c>
-      <c r="D98">
+      <c r="C103">
         <v>1491</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="str">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
         <v>    Lodestar type</v>
       </c>
-      <c r="C99" t="str">
+      <c r="B104" t="str">
         <v>1940</v>
       </c>
-      <c r="D99">
+      <c r="C104">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" t="str">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
         <v>    Lodestar type</v>
       </c>
-      <c r="C100" t="str">
+      <c r="B105" t="str">
         <v>1941</v>
       </c>
-      <c r="D100">
+      <c r="C105">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="str">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
         <v>    Lodestar type</v>
       </c>
-      <c r="C101" t="str">
+      <c r="B106" t="str">
         <v>1942</v>
       </c>
-      <c r="D101">
+      <c r="C106">
         <v>180</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" t="str">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
         <v>    Lodestar type</v>
       </c>
-      <c r="C102" t="str">
+      <c r="B107" t="str">
         <v>1943</v>
       </c>
-      <c r="D102">
+      <c r="C107">
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" t="str">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
         <v>    Lodestar type</v>
       </c>
-      <c r="C103" t="str">
+      <c r="B108" t="str">
         <v>1944</v>
       </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" t="str">
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
         <v>    Lodestar type</v>
       </c>
-      <c r="C104" t="str">
+      <c r="B109" t="str">
         <v>1945</v>
       </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" t="str">
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
         <v>    Others</v>
       </c>
-      <c r="C105" t="str">
+      <c r="B110" t="str">
         <v>1940</v>
       </c>
-      <c r="D105">
+      <c r="C110">
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" t="str">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
         <v>    Others</v>
       </c>
-      <c r="C106" t="str">
+      <c r="B111" t="str">
         <v>1941</v>
       </c>
-      <c r="D106">
+      <c r="C111">
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" t="str">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
         <v>    Others</v>
       </c>
-      <c r="C107" t="str">
+      <c r="B112" t="str">
         <v>1942</v>
       </c>
-      <c r="D107">
+      <c r="C112">
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" t="str">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
         <v>    Others</v>
       </c>
-      <c r="C108" t="str">
+      <c r="B113" t="str">
         <v>1943</v>
       </c>
-      <c r="D108">
+      <c r="C113">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" t="str">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
         <v>    Others</v>
       </c>
-      <c r="C109" t="str">
+      <c r="B114" t="str">
         <v>1944</v>
       </c>
-      <c r="D109">
+      <c r="C114">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" t="str">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
         <v>    Others</v>
       </c>
-      <c r="C110" t="str">
+      <c r="B115" t="str">
         <v>1945</v>
       </c>
-      <c r="D110">
+      <c r="C115">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate leftLabels="1" topLabels="1">
+  <dataConsolidate topLabels="1">
     <dataRefs count="1">
       <dataRef ref="A7:G19" sheet="Report"/>
     </dataRefs>
@@ -3355,7 +4480,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIABHAGUAbgBlAHIAYQB0AGUAIABhAG4AIABpAG4AZABlAHgAIABjAG8AbAB1AG0AbgAgAHQAaABlACAAaABlAGkAZwBoAHQAIABvAGYAIAB0AGgAZQAgAGQAYQB0AGEAIABkAFwAbgBfAGYASQBuAGQAZQB4AD0ATABBAE0AQgBEAEEAKABkACwAcgAsAEkATgBEAEUAWAAoAGQALAByACwAUwBFAFEAVQBFAE4AQwBFACgAMQAsAEMATwBMAFUATQBOAFMAKABkACkAKQApACkAOwBcAG4ALwAvACAAUwB1AHAAZQByAFgATABPAE8ASwBVAFAAXABuAF8AZgBTAFUAUABFAFIAWABMAE8ATwBLAFUAUAA9AEwAQQBNAEIARABBACgAbABvAG8AawB1AHAAXwB2AGEAbAB1AGUALABsAG8AbwBrAHUAcABfAGEAcgByAGEAeQAsAHIAZQB0AHUAcgBuAF8AYQByAHIAYQB5ACwAWwBpAGYAXwBuAG8AdABfAGYAbwB1AG4AZABdACwAWwBtAGEAdABjAGgAXwBtAG8AZABlAF0ALABbAHMAZQBhAHIAYwBoAF8AbQBvAGQAZQBdACwAXABuACAAIAAgACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIABDAE8ATABVAE0ATgBTACgAbABvAG8AawB1AHAAXwB2AGEAbAB1AGUAKQAgAD0AIAAxACwAXABuACAAIAAgACAAIAAgACAAIABJAEYARQBSAFIATwBSACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAZQB0AHUAcgBuAF8AYQByAHIAYQB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWABNAEEAVABDAEgAKABsAG8AbwBrAHUAcABfAHYAYQBsAHUAZQAsACAAbABvAG8AawB1AHAAXwBhAHIAcgBhAHkALAAgAG0AYQB0AGMAaABfAG0AbwBkAGUALAAgAHMAZQBhAHIAYwBoAF8AbQBvAGQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBFAFEAVQBFAE4AQwBFACgAMQAsACAAQwBPAEwAVQBNAE4AUwAoAHIAZQB0AHUAcgBuAF8AYQByAHIAYQB5ACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGkAZgBfAG4AbwB0AF8AZgBvAHUAbgBkACkALAAgAE4AQQAoACkALAAgAGkAZgBfAG4AbwB0AF8AZgBvAHUAbgBkACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABJAEYARQBSAFIATwBSACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAZQB0AHUAcgBuAF8AYQByAHIAYQB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBFAFEAVQBFAE4AQwBFACgAUgBPAFcAUwAoAHIAZQB0AHUAcgBuAF8AYQByAHIAYQB5ACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFgATQBBAFQAQwBIACgAbABvAG8AawB1AHAAXwB2AGEAbAB1AGUALAAgAGwAbwBvAGsAdQBwAF8AYQByAHIAYQB5ACwAIABtAGEAdABjAGgAXwBtAG8AZABlACwAIABzAGUAYQByAGMAaABfAG0AbwBkAGUAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGkAZgBfAG4AbwB0AF8AZgBvAHUAbgBkACkALAAgAE4AQQAoACkALAAgAGkAZgBfAG4AbwB0AF8AZgBvAHUAbgBkACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8ALwAgAEwAaQBuAGUAYQByACAASQBuAHQAZQByAHAAbwBsAGEAdABpAG8AbgAgAEYAbwByAG0AdQBsAGEAXABuAF8AZgBJAG4AdABlAHIAcAA9AEwAQQBNAEIARABBACgAeAAsAHgAZABhAHQALAB5AGQAYQB0ACwAXABuACAAIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAB4AG0AaQBuACwAIABYAEwATwBPAEsAVQBQACgAeAAsAHgAZABhAHQALAB4AGQAYQB0ACwALAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAB4AG0AYQB4ACwAIABYAEwATwBPAEsAVQBQACgAeAAsAHgAZABhAHQALAB4AGQAYQB0ACwALAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAeQBtAGkAbgAsACAAWABMAE8ATwBLAFUAUAAoAHgALAB4AGQAYQB0ACwAeQBkAGEAdAAsACwALQAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAeQBtAGEAeAAsACAAWABMAE8ATwBLAFUAUAAoAHgALAB4AGQAYQB0ACwAeQBkAGEAdAAsACwAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgAEkARgAoAHgAbQBpAG4APQB4AG0AYQB4ACwAeQBtAGkAbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAoAHkAbQBpAG4AKgAoAHgAbQBhAHgALQB4ACkAKwB5AG0AYQB4ACoAKAB4AC0AeABtAGkAbgApACkALwAoAHgAbQBhAHgALQB4AG0AaQBuACkAKQBcAG4AIAAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8ALwAgAEMAbwB1AG4AdAAgAGEAIABzAHAAZQBjAGkAZgBpAGMAIABjAGgAYQByAGEAYwB0AGUAcgAgAGkAbgAgAGEAIABzAHQAcgBpAG4AZwBcAG4AXwBmAEMAaABhAHIAQwBvAHUAbgB0AD0ATABBAE0AQgBEAEEAKABzACwAYwAsAEwARQBUACgAegAsAFMAVQBCAFMAVABJAFQAVQBUAEUAKABzACwAYwAsAFwAIgBcACIAKQAsAEwARQBOACgAcwApAC0ATABFAE4AKAB6ACkAKQApADsAXABuAFwAbgAvAC8AIABGAGkAbABsACAARABvAHcAbgBcAG4AXwBmAEQATgA9AEwAQQBNAEIARABBACgAYQByAHIALABbAGkAbgBpAF0ALABcAG4ATABFAFQAKABcAG4AXwBpAG4AaQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABpAG4AaQApACwAXAAiAFwAIgAsAGkAbgBpACkALABcAG4AUwBDAEEATgAoAF8AaQBuAGkALABhAHIAcgAsAEwAQQBNAEIARABBACgAYQAsAHYALABJAEYAKABMAEUATgAoAHYAKQA9ADAALABhACwAdgApACkAKQBcAG4AKQBcAG4AKQA7AFwAbgBcAG4ALwAvACAARgBpAGwAbAAgAFUAcABcAG4AXwBmAFUAUAA9AEwAQQBNAEIARABBACgAYQByAHIALABbAGkAbgBpAF0ALABcAG4ATABFAFQAKABcAG4AXwBmACwATABBAE0AQgBEAEEAKAB6ACwASQBOAEQARQBYACgAegAsAFMARQBRAFUARQBOAEMARQAoAFIATwBXAFMAKAB6ACkALAAxACwAUgBPAFcAUwAoAHoAKQAsAC0AMQApACkAKQAsAFwAbgBfAGEAcgByACwAIABfAGYAKABhAHIAcgApACwAXABuAF8AaQBuAGkALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAaQBuAGkAKQAsAFwAIgBcACIALABpAG4AaQApACwAXABuAF8AZgAoAFMAQwBBAE4AKABfAGkAbgBpACwAXwBhAHIAcgAsAEwAQQBNAEIARABBACgAYQAsAHYALABJAEYAKABMAEUATgAoAHYAKQA9ADAALABhACwAdgApACkAKQApAFwAbgApAFwAbgApADsAXABuAFwAbgAvAC8AIABCAHIAbwBhAGQAYwBhAHMAdAAgAGYAaQByAHMAdAAgAGMAbwBsAHUAbQBuAFwAbgBfAGYAQgBDAEEAUwBUAD0ATABBAE0AQgBEAEEAKABfAG4ARABhAHQAYQAsAEwARQBUACgAZgAsACAATABBAE0AQgBEAEEAKABfAGQALABMAEUAVAAoAF8AYwAsAEMATwBMAFUATQBOAFMAKABfAGQAKQAtADEALABEAFIATwBQACgAUgBFAEQAVQBDAEUAKABcACIAXAAiACwAVABBAEsARQAoAF8AZAAsACwAMQApACwATABBAE0AQgBEAEEAKABhACwAdgAsAFYAUwBUAEEAQwBLACgAYQAsAEUAWABQAEEATgBEACgAdgAsAF8AYwAsADEALAB2ACkAKQApACkALAAxACkAKQApACwAXABuACAAIAAgACAAIABIAFMAVABBAEMASwAoAGYAKABfAG4ARABhAHQAYQApACwAVABPAEMATwBMACgARABSAE8AUAAoAF8AbgBEAGEAdABhACwALAAxACkAKQApAFwAbgApACkAOwBcAG4AXABuAC8ALwAgAE0AYQByAGsAIABQAHIAbwBjAHQAbwByACAARABEAEwAIABmAHUAbgBjAHQAaQBvAG4AXABuAEQARABMAD0ATABBAE0AQgBEAEEAKAByAGEAbgBnAGUALABbAGwAbwBvAGsAdQBwADEAXQAsAFsAbABvAG8AawB1AHAAMgBdACwAWwBsAG8AbwBrAHUAcAAzAF0ALABbAGwAbwBvAGsAdQBwADQAXQAsAFsAbABvAG8AawB1AHAANQBdACwAWwBsAG8AbwBrAHUAcAA2AF0ALABbAGwAbwBvAGsAdQBwADcAXQAsAFsAbABvAG8AawB1AHAAOABdACwAWwBsAG8AbwBrAHUAcAA5AF0ALABbAGwAbwBvAGsAdQBwADEAMABdACwAXABuAEwARQBUACgAXABuAF8AcwAsACAAXAAiACUAXgAmACYAQABcACIALAAgAFwAbgBsAG8AbwBrAHUAcABWAGEAbAB1AGUALAAgAGwAbwBvAGsAdQBwADEAIAAmACAAXwBzACAAJgAgAGwAbwBvAGsAdQBwADIAIAAmACAAXwBzACAAJgAgAGwAbwBvAGsAdQBwADMAIAAmACAAXwBzACAAJgAgAGwAbwBvAGsAdQBwADQAIAAmACAAXwBzACAAJgAgAGwAbwBvAGsAdQBwADUAIAAmACAAXwBzACAAJgAgAGwAbwBvAGsAdQBwADYAIAAmACAAXwBzACAAJgAgAGwAbwBvAGsAdQBwADcAIAAmACAAXwBzACAAJgAgAGwAbwBvAGsAdQBwADgAIAAmACAAXwBzACAAJgAgAGwAbwBvAGsAdQBwADkAIAAmACAAXwBzACAAJgAgAGwAbwBvAGsAdQBwADEAMAAsAFwAbgBsAGUAdgBlAGwASQBuAGQAZQB4ACwAIABJAEYARQBSAFIATwBSACgAUgBPAFcAUwAoAFQARQBYAFQAUwBQAEwASQBUACgAbABvAG8AawB1AHAAVgBhAGwAdQBlACwAIAAsACAAXwBzACwAIABUAFIAVQBFACgAKQApACkALAAgADAAKQAgACsAIAAxACwAIABcAG4AbABvAG8AawB1AHAAQQByAHIAYQB5ACwAIABCAFkAUgBPAFcAKABFAFgAUABBAE4ARAAoAEMASABPAE8AUwBFAEMATwBMAFMAKAByAGEAbgBnAGUALAAgAFMARQBRAFUARQBOAEMARQAoADEALAAgAGwAZQB2AGUAbABJAG4AZABlAHgAIAAtACAAMQApACkALAAgACwAIAAxADAALAAgAFwAIgBcACIAKQAsACAATABBAE0AQgBEAEEAKAByAG8AdwAsACAAVABFAFgAVABKAE8ASQBOACgAXwBzACwAIABGAEEATABTAEUALAAgAHIAbwB3ACkAKQApACwAXABuAHIAZQB0AHUAcgBuAFIAYQBuAGcAZQAsACAASQBOAEQARQBYACgAcgBhAG4AZwBlACwAIAAwACwAIABsAGUAdgBlAGwASQBuAGQAZQB4ACkALAAgAFwAbgByAGUAcwB1AGwAdAAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABsAG8AbwBrAHUAcAAxACkAIAAqACAAbABlAHYAZQBsAEkAbgBkAGUAeAAgAD0AIAAxACwAIAByAGUAdAB1AHIAbgBSAGEAbgBnAGUALAAgAFgATABPAE8ASwBVAFAAKABsAG8AbwBrAHUAcABWAGEAbAB1AGUALAAgAGwAbwBvAGsAdQBwAEEAcgByAGEAeQAsACAAcgBlAHQAdQByAG4AUgBhAG4AZwBlACkAOgBYAEwATwBPAEsAVQBQACgAbABvAG8AawB1AHAAVgBhAGwAdQBlACwAIABsAG8AbwBrAHUAcABBAHIAcgBhAHkALAAgAHIAZQB0AHUAcgBuAFIAYQBuAGcAZQAsACAALAAgACwAIAAtADEAKQApACwAXABuAHIAZQBzAHUAbAB0ACkAKQA7AFwAbgBcAG4ALwAvACAATQBhAHIAawAgAFAAcgBvAGMAdABvAHIAIABEAEQATABTAG8AcgB0AGUAcgAgAGYAdQBuAGMAdABpAG8AbgBcAG4AXABuAEQARABMAFMAbwByAHQAZQByAD0ATABBAE0AQgBEAEEAKABSAGEAbgBnAGUALABbAFMAbwByAHQATwByAGQAZQByAF0ALABTAE8AUgBUACgAUgBhAG4AZwBlACwAIABTAEUAUQBVAEUATgBDAEUAKAAsACAAQwBPAEwAVQBNAE4AUwAoAFIAYQBuAGcAZQApACkALAAgAFMAbwByAHQATwByAGQAZQByACkAKQA7AFwAbgBcAG4ALwAvACAARABvAHUAYgBsAGUAIABYAEwATwBPAEsAVQBQAFwAbgBcAG4AXwBmAEQAWAA9AEwAQQBNAEIARABBACgAdgBsAG8AbwBrAHUAcABfAHYAYQBsAHUAZQAsAHYAbABvAG8AawB1AHAAXwBhAHIAcgBhAHkALABoAGwAbwBvAGsAdQBwAF8AdgBhAGwAdQBlACwAaABsAG8AbwBrAHUAcABfAGEAcgByAGEAeQAsAHIAZQB0AHUAcgBuAF8AYQByAHIAYQB5ACwAWwBpAGYAXwBuAG8AdABfAGYAbwB1AG4AZABdACwAWwB2AG0AYQB0AGMAaABfAG0AbwBkAGUAXQAsAFsAdgBzAGUAYQByAGMAaABfAG0AbwBkAGUAXQAsAFsAaABtAGEAdABjAGgAXwBtAG8AZABlAF0ALABbAGgAcwBlAGEAcgBjAGgAXwBtAG8AZABlAF0ALAAgAEkARgBFAFIAUgBPAFIAKAAgAEkATgBEAEUAWAAoAHIAZQB0AHUAcgBuAF8AYQByAHIAYQB5ACwAWABNAEEAVABDAEgAKAB2AGwAbwBvAGsAdQBwAF8AdgBhAGwAdQBlACwAdgBsAG8AbwBrAHUAcABfAGEAcgByAGEAeQAsAHYAbQBhAHQAYwBoAF8AbQBvAGQAZQAsAHYAcwBlAGEAcgBjAGgAXwBtAG8AZABlACkALABYAE0AQQBUAEMASAAoAGgAbABvAG8AawB1AHAAXwB2AGEAbAB1AGUALABoAGwAbwBvAGsAdQBwAF8AYQByAHIAYQB5ACwAaABtAGEAdABjAGgAXwBtAG8AZABlACwAaABzAGUAYQByAGMAaABfAG0AbwBkAGUAKQApACwAIABJAEYAKABJAFMATwBNAGwAVABUAEUARAAoAGkAZgBfAG4AbwB0AF8AZgBvAHUAbgBkACkALABOAEEAKAApACwAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAKQApACkAOwBcAG4AXABuAC8ALwAgAFEAdQBhAHIAdABlAHIAIABmAHIAbwBtACAATQBvAG4AdABoACAAQQBiAGIAcgBlAHYAaQBhAHQAaQBvAG4AXABuAFwAbgBfAGYAUQA9AEwAQQBNAEIARABBACgAeAAsAFIATwBVAE4ARABVAFAAKABNAE8ATgBUAEgAKAAxACYAeAApAC8AMwAsADAAKQApADsAXABuAFwAbgAvAC8ATABpAHMAdAAgAEMAbwBtAHAAYQByAGUAXABuAFwAbgBfAGYATABDAD0ATABBAE0AQgBEAEEAKABSAGUAZgBlAHIAZQBuAGMAZQAsAEMAbwBuAHQAYQBpAG4AZQBkAEkAbgAsAEYASQBMAFQARQBSACgAUgBlAGYAZQByAGUAbgBjAGUALABDAE8AVQBOAFQASQBGAFMAKABDAG8AbgB0AGEAaQBuAGUAZABJAG4ALABSAGUAZgBlAHIAZQBuAGMAZQApAD0AMAApACkAOwBcAG4AXABuAC8ALwBMAGEAbQBiAGQAYQAgAGYAbwByACAAVQBuAHAAaQB2AG8AdABcAG4AXABuAF8AZgBVAG4AcABpAHYAbwB0AD0ATABBAE0AQgBEAEEAKABhAHIAcgBhAHkALABIAFMAVABBAEMASwAoAFQARQBYAFQAUwBQAEwASQBUACgAVABFAFgAVABKAE8ASQBOACgAXAAiAHwAXAAiACwAIAAxACwAIABEAFIATwBQACgAVABBAEsARQAoAGEAcgByAGEAeQAsACAALAAgADEAKQAgACYAIABcACIAXABcAFwAIgAgACYAIABUAEEASwBFACgAYQByAHIAYQB5ACwAIAAxACkALAAgADEALAAgADEAKQApACwAXAAiAFwAXABcACIALABcACIAfABcACIAKQAsAFQATwBDAE8ATAAoAEQAUgBPAFAAKABhAHIAcgBhAHkALAAxACwAIAAxACkAKQApACkAIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIAXwBmAEkAbgBkAGUAeAAiACwAIgBfAGYAUwBVAFAARQBSAFgATABPAE8ASwBVAFAAIgAsACIAXwBmAEkAbgB0AGUAcgBwACIALAAiAF8AZgBDAGgAYQByAEMAbwB1AG4AdAAiACwAIgBfAGYARABOACIALAAiAF8AZgBVAFAAIgAsACIAXwBmAEIAQwBBAFMAVAAiACwAIgBEAEQATAAiACwAIgBEAEQATABTAG8AcgB0AGUAcgAiACwAIgBfAGYARABYACIALAAiAF8AZgBRACIALAAiAF8AZgBMAEMAIgAsACIAXwBmAFUAbgBwAGkAdgBvAHQAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBEAE0AWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Lambda4Unpivot.xlsx
+++ b/Lambda4Unpivot.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3882528B-73CF-4556-B526-5CE1E69A23AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F16DB9-0D70-4BE5-B00D-383330AB00EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Formats" sheetId="2" r:id="rId2"/>
-    <sheet name="Lists" sheetId="3" r:id="rId3"/>
+    <sheet name="Detail1" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Report" sheetId="1" r:id="rId3"/>
+    <sheet name="Formats" sheetId="2" r:id="rId4"/>
+    <sheet name="Lists" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_fBCAST">_xlfn.LAMBDA(_xlpm._nData, _xlfn.LET(_xlpm.f, _xlfn.LAMBDA(_xlpm._d, _xlfn.LET(_xlpm._c, COLUMNS(_xlpm._d) - 1, _xlfn.DROP(_xlfn.REDUCE("", _xlfn.TAKE(_xlpm._d, , 1), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.VSTACK(_xlpm.a, _xlfn.EXPAND(_xlpm.v, _xlpm._c, 1, _xlpm.v)))), 1))), _xlfn.HSTACK(_xlpm.f(_xlpm._nData), _xlfn.TOCOL(_xlfn.DROP(_xlpm._nData, , 1)))))</definedName>
@@ -35,7 +37,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -77,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
   <si>
     <t>FROM:</t>
   </si>
@@ -182,6 +185,24 @@
   </si>
   <si>
     <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Details for Sum of Value</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -369,7 +390,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -384,6 +405,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -927,6 +954,54 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="mbieg" refreshedDate="45756.616702893516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{E3E73F7D-99E5-48A6-8B7B-53D5CD4E7B1B}">
+  <cacheSource type="consolidation">
+    <consolidation autoPage="0">
+      <rangeSets count="1">
+        <rangeSet ref="A22:G34" sheet="Report"/>
+      </rangeSets>
+    </consolidation>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Row" numFmtId="0">
+      <sharedItems count="12">
+        <s v="    C-43"/>
+        <s v="    C-45"/>
+        <s v="    C-46"/>
+        <s v="    C-54"/>
+        <s v="    C-61"/>
+        <s v="    C-64"/>
+        <s v="    C-69"/>
+        <s v="    C-78"/>
+        <s v="    C-87"/>
+        <s v="    DC-3 type"/>
+        <s v="    Lodestar type"/>
+        <s v="    Others"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1940" maxValue="1945" count="6">
+        <n v="1940"/>
+        <n v="1941"/>
+        <n v="1942"/>
+        <n v="1943"/>
+        <n v="1944"/>
+        <n v="1945"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Value" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4900"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
   <r>
@@ -968,7 +1043,491 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="157"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="161"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1060"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="591"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="353"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="1321"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="1423"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="72"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="356"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="635"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="147"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="209"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="454"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="82"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="187"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <n v="2548"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="471"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <n v="140"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="115"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <n v="165"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="2"/>
+    <n v="1057"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <n v="2595"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+    <n v="4900"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <n v="1491"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="2"/>
+    <n v="180"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="3"/>
+    <n v="297"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="2"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="3"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="5"/>
+    <n v="4"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4417412-A609-4EC2-8B46-011F88C400E0}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Value" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
@@ -1059,6 +1618,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CFCA888-93B0-4D7B-A826-B6443E533AFC}" name="Table2" displayName="Table2" ref="A3:C75" totalsRowShown="0">
+  <autoFilter ref="A3:C75" xr:uid="{5CFCA888-93B0-4D7B-A826-B6443E533AFC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F6328429-FF70-46F2-B313-0700A62E3D81}" name="Row"/>
+    <tableColumn id="2" xr3:uid="{982FD3C9-03F0-43CE-B03A-B222FCE642CB}" name="Column"/>
+    <tableColumn id="3" xr3:uid="{9A01B5D7-F033-49BD-93C7-43720E718B8E}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="Biegert Table Standard" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33EBBF0F-200B-49A7-BE86-E02A26DD1F32}" name="_tSample" displayName="_tSample" ref="B7:E13" totalsRowShown="0">
   <autoFilter ref="B7:E13" xr:uid="{33EBBF0F-200B-49A7-BE86-E02A26DD1F32}"/>
   <tableColumns count="4">
@@ -1289,14 +1860,1143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA59135-DC3E-4787-A126-A23FF5A45D11}">
+  <dimension ref="A1:C75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>1940</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1942</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>1943</v>
+      </c>
+      <c r="C7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1944</v>
+      </c>
+      <c r="C8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1940</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1941</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1943</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>1944</v>
+      </c>
+      <c r="C14">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>1945</v>
+      </c>
+      <c r="C15">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>1941</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>1942</v>
+      </c>
+      <c r="C18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>1943</v>
+      </c>
+      <c r="C19">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>1944</v>
+      </c>
+      <c r="C20">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>1945</v>
+      </c>
+      <c r="C21">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1942</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1943</v>
+      </c>
+      <c r="C25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1944</v>
+      </c>
+      <c r="C26">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>1945</v>
+      </c>
+      <c r="C27">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1940</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>1941</v>
+      </c>
+      <c r="C29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>1942</v>
+      </c>
+      <c r="C30">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>1943</v>
+      </c>
+      <c r="C31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>1944</v>
+      </c>
+      <c r="C32">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>1941</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>1942</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>1943</v>
+      </c>
+      <c r="C37">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1944</v>
+      </c>
+      <c r="C38">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>1945</v>
+      </c>
+      <c r="C39">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43">
+        <v>1943</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>1944</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45">
+        <v>1945</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48">
+        <v>1942</v>
+      </c>
+      <c r="C48">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49">
+        <v>1943</v>
+      </c>
+      <c r="C49">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>1944</v>
+      </c>
+      <c r="C50">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54">
+        <v>1942</v>
+      </c>
+      <c r="C54">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55">
+        <v>1943</v>
+      </c>
+      <c r="C55">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56">
+        <v>1944</v>
+      </c>
+      <c r="C56">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58">
+        <v>1940</v>
+      </c>
+      <c r="C58">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>1941</v>
+      </c>
+      <c r="C59">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>1942</v>
+      </c>
+      <c r="C60">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>1943</v>
+      </c>
+      <c r="C61">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <v>1944</v>
+      </c>
+      <c r="C62">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>1945</v>
+      </c>
+      <c r="C63">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64">
+        <v>1940</v>
+      </c>
+      <c r="C64">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65">
+        <v>1941</v>
+      </c>
+      <c r="C65">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66">
+        <v>1942</v>
+      </c>
+      <c r="C66">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67">
+        <v>1943</v>
+      </c>
+      <c r="C67">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70">
+        <v>1940</v>
+      </c>
+      <c r="C70">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71">
+        <v>1941</v>
+      </c>
+      <c r="C71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72">
+        <v>1942</v>
+      </c>
+      <c r="C72">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73">
+        <v>1943</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74">
+        <v>1944</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75">
+        <v>1945</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9894F598-6B82-4581-82F0-C7D063B6ECDD}">
+  <dimension ref="A3:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>1940</v>
+      </c>
+      <c r="C4">
+        <v>1941</v>
+      </c>
+      <c r="D4">
+        <v>1942</v>
+      </c>
+      <c r="E4">
+        <v>1943</v>
+      </c>
+      <c r="F4">
+        <v>1944</v>
+      </c>
+      <c r="G4">
+        <v>1945</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13">
+        <v>27</v>
+      </c>
+      <c r="E5" s="13">
+        <v>157</v>
+      </c>
+      <c r="F5" s="13">
+        <v>161</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="13">
+        <v>19</v>
+      </c>
+      <c r="C6" s="13">
+        <v>41</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>60</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1060</v>
+      </c>
+      <c r="G6" s="13">
+        <v>591</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>46</v>
+      </c>
+      <c r="E7" s="13">
+        <v>353</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1321</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1423</v>
+      </c>
+      <c r="H7" s="13">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
+        <v>26</v>
+      </c>
+      <c r="E8" s="13">
+        <v>72</v>
+      </c>
+      <c r="F8" s="13">
+        <v>356</v>
+      </c>
+      <c r="G8" s="13">
+        <v>635</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="13">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13">
+        <v>51</v>
+      </c>
+      <c r="D9" s="13">
+        <v>147</v>
+      </c>
+      <c r="E9" s="13">
+        <v>400</v>
+      </c>
+      <c r="F9" s="13">
+        <v>400</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13">
+        <v>6</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>209</v>
+      </c>
+      <c r="F10" s="13">
+        <v>454</v>
+      </c>
+      <c r="G10" s="13">
+        <v>82</v>
+      </c>
+      <c r="H10" s="13">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3</v>
+      </c>
+      <c r="G11" s="13">
+        <v>10</v>
+      </c>
+      <c r="H11" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
+        <v>187</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2548</v>
+      </c>
+      <c r="F12" s="13">
+        <v>471</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13">
+        <v>41</v>
+      </c>
+      <c r="E13" s="13">
+        <v>110</v>
+      </c>
+      <c r="F13" s="13">
+        <v>140</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="13">
+        <v>115</v>
+      </c>
+      <c r="C14" s="13">
+        <v>165</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1057</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2595</v>
+      </c>
+      <c r="F14" s="13">
+        <v>4900</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1491</v>
+      </c>
+      <c r="H14" s="13">
+        <v>10323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="13">
+        <v>45</v>
+      </c>
+      <c r="C15" s="13">
+        <v>98</v>
+      </c>
+      <c r="D15" s="13">
+        <v>180</v>
+      </c>
+      <c r="E15" s="13">
+        <v>297</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="13">
+        <v>36</v>
+      </c>
+      <c r="C16" s="13">
+        <v>36</v>
+      </c>
+      <c r="D16" s="13">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13">
+        <v>15</v>
+      </c>
+      <c r="F16" s="13">
+        <v>10</v>
+      </c>
+      <c r="G16" s="13">
+        <v>4</v>
+      </c>
+      <c r="H16" s="13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13">
+        <v>233</v>
+      </c>
+      <c r="C17" s="13">
+        <v>398</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1738</v>
+      </c>
+      <c r="E17" s="13">
+        <v>6817</v>
+      </c>
+      <c r="F17" s="13">
+        <v>9276</v>
+      </c>
+      <c r="G17" s="13">
+        <v>4236</v>
+      </c>
+      <c r="H17" s="13">
+        <v>22698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB114D2F-F620-446A-92CE-0CB3C9FD0F74}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
   <dimension ref="A4:BB115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1612,6 +3312,11 @@
         <v>127</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1940</v>
@@ -4131,12 +5836,15 @@
       <dataRef ref="A7:G19" sheet="Report"/>
     </dataRefs>
   </dataConsolidate>
+  <hyperlinks>
+    <hyperlink ref="I21" r:id="rId1" xr:uid="{61E5376E-9383-4DDD-A93C-4016B9FBDE45}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912E8867-A2D1-43A4-9ACC-7AB2760F7CD8}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -4174,7 +5882,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>08-Apr-2025</v>
+        <v>09-Apr-2025</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -4435,7 +6143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E13436D-CE0C-4639-B951-C1B98556791F}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -4470,7 +6178,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>08-Apr-2025</v>
+        <v>09-Apr-2025</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/Lambda4Unpivot.xlsx
+++ b/Lambda4Unpivot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F16DB9-0D70-4BE5-B00D-383330AB00EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD40E698-FDFC-489F-8D32-52AAA0A214D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Detail1" sheetId="5" r:id="rId1"/>
@@ -37,8 +37,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="43">
   <si>
     <t>FROM:</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Result of consolidation</t>
+  </si>
+  <si>
+    <t>Double click on grand total to get all data</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -408,7 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12"/>
   </cellXfs>
@@ -1409,7 +1414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4417412-A609-4EC2-8B46-011F88C400E0}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4417412-A609-4EC2-8B46-011F88C400E0}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -1528,7 +1533,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1875,7 +1880,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2635,10 +2640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9894F598-6B82-4581-82F0-C7D063B6ECDD}">
-  <dimension ref="A3:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2649,6 +2654,11 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
@@ -2687,21 +2697,19 @@
       <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13">
+      <c r="D5">
         <v>27</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5">
         <v>157</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5">
         <v>161</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13">
+      <c r="H5">
         <v>352</v>
       </c>
     </row>
@@ -2709,23 +2717,22 @@
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>19</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6">
         <v>41</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
+      <c r="E6">
         <v>60</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6">
         <v>1060</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6">
         <v>591</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6">
         <v>1771</v>
       </c>
     </row>
@@ -2733,23 +2740,22 @@
       <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7">
         <v>46</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7">
         <v>353</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7">
         <v>1321</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7">
         <v>1423</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7">
         <v>3144</v>
       </c>
     </row>
@@ -2757,21 +2763,19 @@
       <c r="A8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13">
+      <c r="D8">
         <v>26</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8">
         <v>72</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8">
         <v>356</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8">
         <v>635</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8">
         <v>1089</v>
       </c>
     </row>
@@ -2779,23 +2783,22 @@
       <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>11</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9">
         <v>51</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9">
         <v>147</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9">
         <v>400</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9">
         <v>400</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13">
+      <c r="H9">
         <v>1009</v>
       </c>
     </row>
@@ -2803,23 +2806,22 @@
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13">
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10">
         <v>209</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10">
         <v>454</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10">
         <v>82</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10">
         <v>752</v>
       </c>
     </row>
@@ -2827,19 +2829,16 @@
       <c r="A11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11">
         <v>14</v>
       </c>
     </row>
@@ -2847,19 +2846,16 @@
       <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13">
+      <c r="D12">
         <v>187</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12">
         <v>2548</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12">
         <v>471</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13">
+      <c r="H12">
         <v>3206</v>
       </c>
     </row>
@@ -2867,19 +2863,16 @@
       <c r="A13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13">
+      <c r="D13">
         <v>41</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13">
         <v>110</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13">
         <v>140</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13">
+      <c r="H13">
         <v>291</v>
       </c>
     </row>
@@ -2887,25 +2880,25 @@
       <c r="A14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14">
         <v>115</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14">
         <v>165</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14">
         <v>1057</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14">
         <v>2595</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14">
         <v>4900</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14">
         <v>1491</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14">
         <v>10323</v>
       </c>
     </row>
@@ -2913,21 +2906,19 @@
       <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15">
         <v>45</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15">
         <v>98</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15">
         <v>180</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15">
         <v>297</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13">
+      <c r="H15">
         <v>620</v>
       </c>
     </row>
@@ -2935,25 +2926,25 @@
       <c r="A16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16">
         <v>36</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16">
         <v>36</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16">
         <v>26</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16">
         <v>127</v>
       </c>
     </row>
@@ -2961,26 +2952,31 @@
       <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17">
         <v>233</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17">
         <v>398</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17">
         <v>1738</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17">
         <v>6817</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17">
         <v>9276</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17">
         <v>4236</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17">
         <v>22698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2995,7 +2991,7 @@
   </sheetPr>
   <dimension ref="A4:BB115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -3313,7 +3309,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Lambda4Unpivot.xlsx
+++ b/Lambda4Unpivot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD40E698-FDFC-489F-8D32-52AAA0A214D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BA54F1-EB0B-4C72-AD44-A11DD2ACF37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Detail1" sheetId="5" r:id="rId1"/>
@@ -37,8 +37,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
-    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1414,7 +1414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4417412-A609-4EC2-8B46-011F88C400E0}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C4417412-A609-4EC2-8B46-011F88C400E0}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -1533,7 +1533,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1866,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA59135-DC3E-4787-A126-A23FF5A45D11}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1879,12 +1879,12 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1905,16 +1905,35 @@
       <c r="C4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" t="str" cm="1">
+        <f t="array" ref="F4:H75">_xlfn.ANCHORARRAY(Report!A44)</f>
+        <v>    C-43</v>
+      </c>
+      <c r="G4" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5">
         <v>1941</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <v>    C-43</v>
+      </c>
+      <c r="G5" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1924,8 +1943,17 @@
       <c r="C6">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <v>    C-43</v>
+      </c>
+      <c r="G6" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1935,8 +1963,17 @@
       <c r="C7">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <v>    C-43</v>
+      </c>
+      <c r="G7" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1946,16 +1983,34 @@
       <c r="C8">
         <v>161</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <v>    C-43</v>
+      </c>
+      <c r="G8" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
         <v>1945</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <v>    C-43</v>
+      </c>
+      <c r="G9" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1965,8 +2020,17 @@
       <c r="C10">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <v>    C-45</v>
+      </c>
+      <c r="G10" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1976,16 +2040,34 @@
       <c r="C11">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <v>    C-45</v>
+      </c>
+      <c r="G11" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
         <v>1942</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <v>    C-45</v>
+      </c>
+      <c r="G12" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1995,8 +2077,17 @@
       <c r="C13">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <v>    C-45</v>
+      </c>
+      <c r="G13" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2006,8 +2097,17 @@
       <c r="C14">
         <v>1060</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <v>    C-45</v>
+      </c>
+      <c r="G14" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H14">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2017,16 +2117,34 @@
       <c r="C15">
         <v>591</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <v>    C-45</v>
+      </c>
+      <c r="G15" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H15">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16">
         <v>1940</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <v>    C-46</v>
+      </c>
+      <c r="G16" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2036,8 +2154,17 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <v>    C-46</v>
+      </c>
+      <c r="G17" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2047,8 +2174,17 @@
       <c r="C18">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <v>    C-46</v>
+      </c>
+      <c r="G18" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2058,8 +2194,17 @@
       <c r="C19">
         <v>353</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <v>    C-46</v>
+      </c>
+      <c r="G19" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H19">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2069,8 +2214,17 @@
       <c r="C20">
         <v>1321</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <v>    C-46</v>
+      </c>
+      <c r="G20" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H20">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2080,24 +2234,51 @@
       <c r="C21">
         <v>1423</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <v>    C-46</v>
+      </c>
+      <c r="G21" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H21">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
         <v>1940</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <v>    C-54</v>
+      </c>
+      <c r="G22" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
         <v>1941</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <v>    C-54</v>
+      </c>
+      <c r="G23" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2107,8 +2288,17 @@
       <c r="C24">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <v>    C-54</v>
+      </c>
+      <c r="G24" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2118,8 +2308,17 @@
       <c r="C25">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <v>    C-54</v>
+      </c>
+      <c r="G25" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2328,17 @@
       <c r="C26">
         <v>356</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <v>    C-54</v>
+      </c>
+      <c r="G26" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H26">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2140,8 +2348,17 @@
       <c r="C27">
         <v>635</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <v>    C-54</v>
+      </c>
+      <c r="G27" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H27">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2151,8 +2368,17 @@
       <c r="C28">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <v>    C-61</v>
+      </c>
+      <c r="G28" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2162,8 +2388,17 @@
       <c r="C29">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <v>    C-61</v>
+      </c>
+      <c r="G29" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H29">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -2173,8 +2408,17 @@
       <c r="C30">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <v>    C-61</v>
+      </c>
+      <c r="G30" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H30">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -2184,8 +2428,17 @@
       <c r="C31">
         <v>400</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <v>    C-61</v>
+      </c>
+      <c r="G31" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2195,24 +2448,51 @@
       <c r="C32">
         <v>400</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <v>    C-61</v>
+      </c>
+      <c r="G32" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H32">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33">
         <v>1945</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <v>    C-61</v>
+      </c>
+      <c r="G33" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34">
         <v>1940</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <v>    C-64</v>
+      </c>
+      <c r="G34" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -2222,8 +2502,17 @@
       <c r="C35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <v>    C-64</v>
+      </c>
+      <c r="G35" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -2233,8 +2522,17 @@
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <v>    C-64</v>
+      </c>
+      <c r="G36" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -2244,8 +2542,17 @@
       <c r="C37">
         <v>209</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <v>    C-64</v>
+      </c>
+      <c r="G37" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H37">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -2255,8 +2562,17 @@
       <c r="C38">
         <v>454</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <v>    C-64</v>
+      </c>
+      <c r="G38" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H38">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -2266,32 +2582,68 @@
       <c r="C39">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <v>    C-64</v>
+      </c>
+      <c r="G39" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H39">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
       <c r="B40">
         <v>1940</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <v>    C-69</v>
+      </c>
+      <c r="G40" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
       <c r="B41">
         <v>1941</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <v>    C-69</v>
+      </c>
+      <c r="G41" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>27</v>
       </c>
       <c r="B42">
         <v>1942</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <v>    C-69</v>
+      </c>
+      <c r="G42" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -2301,8 +2653,17 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F43" t="str">
+        <v>    C-69</v>
+      </c>
+      <c r="G43" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -2312,8 +2673,17 @@
       <c r="C44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <v>    C-69</v>
+      </c>
+      <c r="G44" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -2323,24 +2693,51 @@
       <c r="C45">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <v>    C-69</v>
+      </c>
+      <c r="G45" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
       <c r="B46">
         <v>1940</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <v>    C-78</v>
+      </c>
+      <c r="G46" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
       <c r="B47">
         <v>1941</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <v>    C-78</v>
+      </c>
+      <c r="G47" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -2350,8 +2747,17 @@
       <c r="C48">
         <v>187</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <v>    C-78</v>
+      </c>
+      <c r="G48" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H48">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2361,8 +2767,17 @@
       <c r="C49">
         <v>2548</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <v>    C-78</v>
+      </c>
+      <c r="G49" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H49">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -2372,32 +2787,68 @@
       <c r="C50">
         <v>471</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <v>    C-78</v>
+      </c>
+      <c r="G50" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H50">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
       <c r="B51">
         <v>1945</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <v>    C-78</v>
+      </c>
+      <c r="G51" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>29</v>
       </c>
       <c r="B52">
         <v>1940</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <v>    C-87</v>
+      </c>
+      <c r="G52" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>29</v>
       </c>
       <c r="B53">
         <v>1941</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <v>    C-87</v>
+      </c>
+      <c r="G53" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -2407,8 +2858,17 @@
       <c r="C54">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <v>    C-87</v>
+      </c>
+      <c r="G54" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H54">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>29</v>
       </c>
@@ -2418,8 +2878,17 @@
       <c r="C55">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <v>    C-87</v>
+      </c>
+      <c r="G55" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H55">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -2429,16 +2898,34 @@
       <c r="C56">
         <v>140</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F56" t="str">
+        <v>    C-87</v>
+      </c>
+      <c r="G56" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H56">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
       <c r="B57">
         <v>1945</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F57" t="str">
+        <v>    C-87</v>
+      </c>
+      <c r="G57" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -2448,8 +2935,17 @@
       <c r="C58">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <v>    DC-3 type</v>
+      </c>
+      <c r="G58" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H58">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -2459,8 +2955,17 @@
       <c r="C59">
         <v>165</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F59" t="str">
+        <v>    DC-3 type</v>
+      </c>
+      <c r="G59" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H59">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -2470,8 +2975,17 @@
       <c r="C60">
         <v>1057</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F60" t="str">
+        <v>    DC-3 type</v>
+      </c>
+      <c r="G60" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H60">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -2481,8 +2995,17 @@
       <c r="C61">
         <v>2595</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F61" t="str">
+        <v>    DC-3 type</v>
+      </c>
+      <c r="G61" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H61">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -2492,8 +3015,17 @@
       <c r="C62">
         <v>4900</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F62" t="str">
+        <v>    DC-3 type</v>
+      </c>
+      <c r="G62" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H62">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -2503,8 +3035,17 @@
       <c r="C63">
         <v>1491</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F63" t="str">
+        <v>    DC-3 type</v>
+      </c>
+      <c r="G63" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H63">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -2514,8 +3055,17 @@
       <c r="C64">
         <v>45</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F64" t="str">
+        <v>    Lodestar type</v>
+      </c>
+      <c r="G64" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H64">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -2525,8 +3075,17 @@
       <c r="C65">
         <v>98</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F65" t="str">
+        <v>    Lodestar type</v>
+      </c>
+      <c r="G65" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H65">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>31</v>
       </c>
@@ -2536,8 +3095,17 @@
       <c r="C66">
         <v>180</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F66" t="str">
+        <v>    Lodestar type</v>
+      </c>
+      <c r="G66" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H66">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -2547,24 +3115,51 @@
       <c r="C67">
         <v>297</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F67" t="str">
+        <v>    Lodestar type</v>
+      </c>
+      <c r="G67" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H67">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
       <c r="B68">
         <v>1944</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F68" t="str">
+        <v>    Lodestar type</v>
+      </c>
+      <c r="G68" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>31</v>
       </c>
       <c r="B69">
         <v>1945</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F69" t="str">
+        <v>    Lodestar type</v>
+      </c>
+      <c r="G69" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>32</v>
       </c>
@@ -2574,8 +3169,17 @@
       <c r="C70">
         <v>36</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F70" t="str">
+        <v>    Others</v>
+      </c>
+      <c r="G70" t="str">
+        <v>1940</v>
+      </c>
+      <c r="H70">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -2585,8 +3189,17 @@
       <c r="C71">
         <v>36</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F71" t="str">
+        <v>    Others</v>
+      </c>
+      <c r="G71" t="str">
+        <v>1941</v>
+      </c>
+      <c r="H71">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>32</v>
       </c>
@@ -2596,8 +3209,17 @@
       <c r="C72">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F72" t="str">
+        <v>    Others</v>
+      </c>
+      <c r="G72" t="str">
+        <v>1942</v>
+      </c>
+      <c r="H72">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -2607,8 +3229,17 @@
       <c r="C73">
         <v>15</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F73" t="str">
+        <v>    Others</v>
+      </c>
+      <c r="G73" t="str">
+        <v>1943</v>
+      </c>
+      <c r="H73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -2618,8 +3249,17 @@
       <c r="C74">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F74" t="str">
+        <v>    Others</v>
+      </c>
+      <c r="G74" t="str">
+        <v>1944</v>
+      </c>
+      <c r="H74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>32</v>
       </c>
@@ -2627,6 +3267,15 @@
         <v>1945</v>
       </c>
       <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="F75" t="str">
+        <v>    Others</v>
+      </c>
+      <c r="G75" t="str">
+        <v>1945</v>
+      </c>
+      <c r="H75">
         <v>4</v>
       </c>
     </row>
@@ -2642,7 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9894F598-6B82-4581-82F0-C7D063B6ECDD}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -2991,8 +3640,8 @@
   </sheetPr>
   <dimension ref="A4:BB115"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
